--- a/Redis/Redis-Install.xlsx
+++ b/Redis/Redis-Install.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15075" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15075" windowHeight="4905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="install" sheetId="1" r:id="rId1"/>
     <sheet name="help" sheetId="2" r:id="rId2"/>
+    <sheet name="frame" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -8102,7 +8103,7 @@
       </rPr>
       <t>安装包</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8150,7 +8151,7 @@
       </rPr>
       <t>源程序</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8167,11 +8168,11 @@
       </rPr>
       <t>压</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>编译</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8195,15 +8196,15 @@
       </rPr>
       <t>程</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>安装:</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8230,11 +8231,11 @@
       </rPr>
       <t>程</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>省略</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8282,7 +8283,7 @@
       </rPr>
       <t>文件</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8309,7 +8310,7 @@
       </rPr>
       <t>安装在/usr/local</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8325,7 +8326,7 @@
       </rPr>
       <t>存放配置文件</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8361,7 +8362,7 @@
       </rPr>
       <t>/redis/bin</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8387,7 +8388,7 @@
       </rPr>
       <t>/usr/local/redis/etc/</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8414,7 +8415,7 @@
       </rPr>
       <t>行文件copy到 /usr/local/redis/bin/</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>[root@localhost src]$  mv mkreleasehdr.sh redis-benchmark redis-check-aof redis-check-dump redis-cli redis-sentinel redis-server /usr/local/redis/bin/</t>
@@ -8535,7 +8536,7 @@
       </rPr>
       <t>：</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8572,7 +8573,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8596,7 +8597,7 @@
       </rPr>
       <t>上配置文件运行redis</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8623,7 +8624,7 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8702,7 +8703,7 @@
       </rPr>
       <t>3306</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8729,7 +8730,7 @@
       </rPr>
       <t>：</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8788,11 +8789,11 @@
       </rPr>
       <t>录</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>以及使用 redis-cli -h 192.168.234.3 -p 6379 -a password</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8809,7 +8810,7 @@
       </rPr>
       <t>设置如下</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8835,11 +8836,11 @@
       </rPr>
       <t xml:space="preserve"> /usr/local/redis/etc/redis.conf</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>requirepass password</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8908,7 +8909,7 @@
       </rPr>
       <t>务</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -8934,7 +8935,7 @@
       </rPr>
       <t xml:space="preserve"> connect to Redis</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -9033,132 +9034,140 @@
       </rPr>
       <t>停止</t>
     </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>redis正式版的压缩包redis-4.0.2.tar.gz</t>
   </si>
   <si>
+    <t>tar -zxvf redis-4.0.2.tar.gz</t>
+  </si>
+  <si>
+    <t>cd redis-4.0.2/src</t>
+  </si>
+  <si>
+    <t>[root@localhost redis-4.0.2]$ mv ./redis.conf /usr/local/redis/etc/</t>
+  </si>
+  <si>
+    <t>[root@localhost redis-4.0.2]$ cd src</t>
+  </si>
+  <si>
+    <r>
+      <t>分享一个下源文件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查找方法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在redis官网，右键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查看源代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redis,会看到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>载文件的uri如http://dowload.redis.io/xxxx/redis-xxx.tar.gz</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
     <t>wget http://download.redis.io/releases/redis-4.0.2.tar.gz</t>
-  </si>
-  <si>
-    <t>tar -zxvf redis-4.0.2.tar.gz</t>
-  </si>
-  <si>
-    <t>cd redis-4.0.2/src</t>
-  </si>
-  <si>
-    <t>[root@localhost redis-4.0.2]$ mv ./redis.conf /usr/local/redis/etc/</t>
-  </si>
-  <si>
-    <t>[root@localhost redis-4.0.2]$ cd src</t>
-  </si>
-  <si>
-    <r>
-      <t>分享一个下源文件的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查找方法，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>在redis官网，右键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查看源代</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>码，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>查找</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>redis,会看到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>载文件的uri如http://dowload.redis.io/xxxx/redis-xxx.tar.gz</t>
-    </r>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9249,17 +9258,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9273,6 +9283,3809 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="485773"/>
+          <a:ext cx="7505701" cy="11372851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="571500"/>
+          <a:ext cx="2057400" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>网络</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设置端口</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>设置安全模式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>授权访问主机</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>TCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>监听最大容量</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>TCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>关闭前的空闲时间值</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .TCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>心跳间隔</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="552450"/>
+          <a:ext cx="2057400" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一般设置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>设置守护模式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>启动监控</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>线程信息文件</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>日志级别</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>日志文件</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .TCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>心跳间隔</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>系统日志</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>数据库数量</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905499" y="523875"/>
+          <a:ext cx="2276475" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>磁盘存储</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>存储规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>60</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>秒更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>10000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>等</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>后台错误时是否可写</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>dump</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>文件压缩</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>   .dump</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>文件检查</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>dump</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>文件的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>dump</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>文件的目录</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .TCP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>心跳间隔</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="2762250"/>
+          <a:ext cx="2057400" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>主从复制</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>从库里设置主库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>及端口</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>主库密码</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>从库是否提供过期数据</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>从库只读</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>从库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>ping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>间隔</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>复制超时时间</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .tcp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>延迟可否</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>复制容量大小</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>复制容量空闲最大时间</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>从库优先级</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>最小可写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>最小从库状态最大时间</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>从库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>周知</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>从库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Port</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>周知</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="2752725"/>
+          <a:ext cx="2057400" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>安全</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>密码设置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>敏感命令从命名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="3695700"/>
+          <a:ext cx="2057400" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可访问最大客户端</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895974" y="2705101"/>
+          <a:ext cx="2314575" cy="2638424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>内存管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>最大内存值</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>内存超过阀值后的清理策略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>volatile-lru </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>allkeys-lru</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>       volatile-lfu </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>allkeys-lfu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>volatile-random</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>allkeys-random </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>volatile-ttl </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>noeviction </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>抽样数量</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="4705350"/>
+          <a:ext cx="2057400" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>懒释放</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>懒释放</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>清除策略</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>懒释放</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>过期时间</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>懒释放</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>服务器删除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>懒释放</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从库清除</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="5848350"/>
+          <a:ext cx="2057400" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AOF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>仅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AOF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模式</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>AOF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>文件名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AOF </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>强同步时间点</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rewrite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>时是否支持</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AOF</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rewrite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>触发条件超出百分比</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .rewrite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>触发条件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>增长尺寸</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>加载时允许</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AOF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容不完整</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>   .AOF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>是否使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>RDB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>前言</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905499" y="5534025"/>
+          <a:ext cx="2314575" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LUA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>脚本</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LUA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>脚本</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>时间</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>限制</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="6000749"/>
+          <a:ext cx="2057400" cy="1666876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>REDIS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>集群</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Redis</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>实例设为集群节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>集群节点配置文件（系统）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>集群节点超时时间</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>集</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>群节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>超时倍数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>集群从库迁移最低有效值</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>集群哈希槽全覆盖</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="6315074"/>
+          <a:ext cx="2314575" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>集群</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>DOCKER/NAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>支持</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>集群节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>集群节点端口</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>集群总线端口</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="7553325"/>
+          <a:ext cx="2314575" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>慢查询日志</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>慢查询日志记录的时间条件</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>慢查询日志的最大条数</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="8420101"/>
+          <a:ext cx="2314575" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>潜在监视器</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>潜在监视门槛</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>毫秒至少执行一次）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876925" y="9324976"/>
+          <a:ext cx="2305050" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>事件通知</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通知事件类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143001" y="7886700"/>
+          <a:ext cx="2171700" cy="3305175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>高级配置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>HASH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>高效最多成员数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HASH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高效最</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>成员</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>尺寸</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高效最大尺寸</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>压缩深度</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .Set</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高效</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Integer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最多成员数</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .Zset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高效最多成员数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .Zset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高效最大成员尺寸</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .hll</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>稀疏模式最大尺寸</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rehash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>有效</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>客户端输出缓冲限制</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     normal,slave,pubsub  </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.hz</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>后台执行参数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>aof-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>rewrite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>增量尺寸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是否</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>触发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>fsync</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .lfu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>记录因子</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>   .lfu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>计数器减半周期</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="7877175"/>
+          <a:ext cx="2057400" cy="1666876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>碎片整理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>开启碎片整理</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>碎片整理许可的浪费尺寸</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>碎片整理启动门槛</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>碎片整理高功率门槛</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>碎片整理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>低功率</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>占用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>碎片整理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>功率</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="zh-CN" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>占用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9555,7 +13368,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:txDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -9564,7 +13415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -9575,7 +13428,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9592,8 +13445,8 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>622</v>
+      <c r="A6" s="6" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -9608,12 +13461,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -9707,12 +13560,12 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9903,7 +13756,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9913,7 +13766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A772"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -13778,8 +17633,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>